--- a/Nakanishi/Excel/RefinableObj_h.xlsx
+++ b/Nakanishi/Excel/RefinableObj_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/Dropbox (個人用)/大士さん関連/FOXコードリーディング/中西Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/Documents/github/fujita_daishi/crystal_structure_analysis/Nakanishi/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10538C6-9DF3-3E46-A3DF-5166196CF3C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58915B52-6621-0348-9633-27565A242040}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="460" windowWidth="31800" windowHeight="19520" xr2:uid="{1F5EB183-5FE2-E240-9F3F-7BA8BF817714}"/>
   </bookViews>
@@ -21333,6 +21333,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8AD8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -22719,6 +22724,1301 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1056</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C51825E-4750-C94D-BD0E-5F0FF2288D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="268338300"/>
+          <a:ext cx="607859" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1081</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8343900" cy="1511300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60860FA-694C-654D-AB5D-16D4D935E10D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="274777200"/>
+          <a:ext cx="8343900" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>virtual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> const CrystVector_REAL&amp; GetLSQDeriv()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>LSQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>関数の一階微分の値を、与えられたパラメータに対して取得する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>RefinableObj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>の基底クラスのデフォルトの手法は、精度を向上するために数値微分を用いる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B3E42F-D542-7947-92EC-BECFEC509ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10693400" y="280238200"/>
+          <a:ext cx="607859" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>1111</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8343900" cy="876300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF48B891-AD59-604B-AD0F-3904B02F4485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="282257500"/>
+          <a:ext cx="8343900" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>virtual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> void XMLOutput()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>XML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>形式でストリームに出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1119</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8343900" cy="876300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE14DEE-9B94-4E47-A86A-4ACA53FDE9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="284314900"/>
+          <a:ext cx="8343900" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>virtual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> void XMLInput()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>ストリームから入力する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1135</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870145" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD100B04-40D9-7E40-8741-69BD87D9DB01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="288518600"/>
+          <a:ext cx="2870145" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>------Genetic Algorithm----</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1140</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5981700" cy="2801921"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA626A7-ED6A-7643-B2C6-DBBAF1B40D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731500" y="289750500"/>
+          <a:ext cx="5981700" cy="2801921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF8AD8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>virtual void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> GetGeneGroup()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>要旨</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>それぞれのパラメータに与えられた遺伝子グループを取得する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>それぞれのパラメータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>遺伝子</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>は遺伝子グループに属すことができる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>そして、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>つの原子配置が交配すると、遺伝子はグループ間で交換される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>デフォルト（基底</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Refinable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>Obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>）では、それぞれのパラメータ１つ１つがグループを成している。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Derived</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> classes can group genes for a better s** life.(?)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>1161</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5981700" cy="2063322"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D90DD70-961D-0040-8E25-3270787C745D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10845800" y="294982900"/>
+          <a:ext cx="5981700" cy="2063322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF8AD8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> SetDeleteRefParInDestructor()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>オブジェクトがなくなるときに、パラメータのリストを失わないようにするためには、これを設定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>この関数はアルゴリズムオブジェクト中の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>RefinableObj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>に用いられる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(OptimizationObj). OptimizationObj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>は精密化されたオブジェクトのパラメータのリストしか保持しない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1172</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1996059" cy="521361"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAE3A69-F40B-FC4F-8F4E-4F946B32EC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="297827700"/>
+          <a:ext cx="1996059" cy="521361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>------</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>拘束条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>----</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1175</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5981700" cy="1462773"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9420769E-CFA5-2F43-8101-710424E726A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="298640500"/>
+          <a:ext cx="5981700" cy="1462773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF8AD8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>virtual REAL GetRestraintCost()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>拘束条件によるコストを得る。（全ての拘束条件による罰則コスト）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>デフォルトでは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>を返す。そのため、実際に拘束をかけるオブジェクトにオーバーロードされる必要がある。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1183</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5981700" cy="943335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339416C-D23A-5947-9B17-06FF2FCD6D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9359900" y="300583600"/>
+          <a:ext cx="5981700" cy="943335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF8AD8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>void AddRestraint()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>新しい拘束条件を追加する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>vector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>中の次の拘束条件を示すイテレータを返す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>1189</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5981700" cy="943335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65B6634-F846-E047-A8E0-1E70CF776EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="302082200"/>
+          <a:ext cx="5981700" cy="943335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF8AD8"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>vector&lt;Restraint*&gt;::iterator RemoveRestraint()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>（既知の）拘束条件のリストから拘束条件を１つ消す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>この関数は拘束条件のオブジェクトを消すわけではない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>1201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2057423" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58580312-C308-9A49-AD75-86E7EF8AF046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9347200" y="305092100"/>
+          <a:ext cx="2057423" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
+            <a:t>以下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>protected</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>752</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1575752" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D892937D-48F9-EA4B-80A3-FF56176C5EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="191020700"/>
+          <a:ext cx="1575752" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
+            <a:t>以下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>public</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>755</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2340513" cy="435632"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D950BA-F3B9-134B-849D-20C1992D0C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="191770000"/>
+          <a:ext cx="2340513" cy="435632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
+            <a:t>コンストラクタ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
+            <a:t>つ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2135328" cy="435632"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D5ACC3-2A9A-A64D-8352-19B6F1FB351A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="194411600"/>
+          <a:ext cx="2135328" cy="435632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
+            <a:t>デストラクタ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
+            <a:t>つ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23021,8 +24321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C525E8FF-6AEE-2A4D-A656-1C742C560DE6}">
   <dimension ref="A1:A1319"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1025" workbookViewId="0">
+      <selection activeCell="K770" sqref="K770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
